--- a/Learning Operating System/汇编学习.xlsx
+++ b/Learning Operating System/汇编学习.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amd64\learn\Learning Operating System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20EC8E-ED73-416A-9131-D5465AB4FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1148378-4010-4D42-BEE1-482BA3AACCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8086汇编" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
   <si>
     <t>AX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1700,6 +1700,26 @@
   </si>
   <si>
     <t>0x10e803ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断门描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断处理过程在目标代码段内偏移量31-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断处理过程在目标代码段内偏移量15-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱门描述符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1929,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1962,6 +1982,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2319,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24:X29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2383,209 +2406,209 @@
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
       <c r="R3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="U3" s="35" t="s">
+      <c r="S3" s="40"/>
+      <c r="U3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
       <c r="R4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="U4" s="35" t="s">
+      <c r="S4" s="40"/>
+      <c r="U4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="U5" s="35" t="s">
+      <c r="S5" s="40"/>
+      <c r="U5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="39"/>
       <c r="R6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="36" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2593,63 +2616,63 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="36"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="39"/>
       <c r="R7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="U7" s="42" t="s">
+      <c r="S7" s="36"/>
+      <c r="U7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="36"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="36" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2657,37 +2680,37 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="36"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="33"/>
+      <c r="S9" s="36"/>
       <c r="U9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="37" t="s">
+      <c r="V9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33" t="s">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="33" t="s">
+      <c r="Y9" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2695,33 +2718,33 @@
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
       <c r="R10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="36" t="s">
         <v>101</v>
       </c>
       <c r="U10" s="4"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
@@ -2764,52 +2787,52 @@
       <c r="R11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="33"/>
+      <c r="S11" s="36"/>
       <c r="U11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
       <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="36" t="s">
         <v>76</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="33" t="s">
+      <c r="V12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33" t="s">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="33" t="s">
+      <c r="Y12" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2817,106 +2840,106 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
       <c r="R13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="33"/>
+      <c r="S13" s="36"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
       <c r="R14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="36"/>
       <c r="U14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
       <c r="R15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="33"/>
+      <c r="S15" s="36"/>
       <c r="U15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="29" t="s">
+      <c r="V15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="30"/>
-      <c r="X15" s="33" t="s">
+      <c r="W15" s="33"/>
+      <c r="X15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="33"/>
+      <c r="Y15" s="36"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.5">
       <c r="U16" s="4"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
@@ -2973,10 +2996,10 @@
       <c r="U17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
@@ -3004,61 +3027,61 @@
       <c r="I18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
       <c r="R18" s="1"/>
       <c r="S18" s="10"/>
       <c r="U18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="26" t="s">
+      <c r="W18" s="24"/>
+      <c r="X18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="33"/>
+      <c r="Y18" s="36"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
       <c r="R19" s="1"/>
       <c r="S19" s="10"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="33"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="36"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
@@ -3117,89 +3140,89 @@
       <c r="U20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="33"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="36"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="U21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="37" t="s">
+      <c r="V21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="33" t="s">
+      <c r="W21" s="40"/>
+      <c r="X21" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Y21" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="40" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="36"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="39"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="27"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="30"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="35" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
       <c r="U23" s="14">
         <v>8000</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="28"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B24" s="1">
@@ -3211,36 +3234,36 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35" t="s">
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35" t="s">
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
       <c r="U24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V24" s="34" t="s">
+      <c r="V24" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="W24" s="35"/>
-      <c r="X24" s="33" t="s">
+      <c r="W24" s="38"/>
+      <c r="X24" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Y24" s="26" t="s">
+      <c r="Y24" s="29" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3254,30 +3277,30 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35" t="s">
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="27"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="30"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B26" s="1">
@@ -3289,32 +3312,32 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35" t="s">
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
       <c r="U26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="27"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="30"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B27" s="1">
@@ -3326,36 +3349,36 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35" t="s">
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
       <c r="U27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V27" s="37" t="s">
+      <c r="V27" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="33" t="s">
+      <c r="W27" s="40"/>
+      <c r="X27" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Y27" s="27"/>
+      <c r="Y27" s="30"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B28" s="1">
@@ -3367,30 +3390,30 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35" t="s">
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="27"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="30"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B29" s="1">
@@ -3402,32 +3425,32 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35" t="s">
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35" t="s">
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
       <c r="U29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="27"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="30"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B30" s="1">
@@ -3439,36 +3462,36 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35" t="s">
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
       <c r="U30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="V30" s="37" t="s">
+      <c r="V30" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33" t="s">
+      <c r="W30" s="36"/>
+      <c r="X30" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="Y30" s="27"/>
+      <c r="Y30" s="30"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B31" s="1">
@@ -3480,97 +3503,97 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35" t="s">
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="27"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="30"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.5">
       <c r="U32" s="7">
         <v>500</v>
       </c>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="27"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="30"/>
     </row>
     <row r="33" spans="19:25" x14ac:dyDescent="0.5">
       <c r="S33" s="10"/>
       <c r="U33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V33" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="27"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="30"/>
     </row>
     <row r="34" spans="19:25" x14ac:dyDescent="0.5">
       <c r="S34" s="10"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="27"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="30"/>
     </row>
     <row r="35" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U35" s="7">
         <v>400</v>
       </c>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="27"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="30"/>
     </row>
     <row r="36" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="37" t="s">
+      <c r="V36" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33" t="s">
+      <c r="W36" s="36"/>
+      <c r="X36" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="Y36" s="27"/>
+      <c r="Y36" s="30"/>
     </row>
     <row r="37" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U37" s="4"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="27"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="30"/>
     </row>
     <row r="38" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U38" s="7">
         <v>0</v>
       </c>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="28"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="31"/>
     </row>
     <row r="42" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U42" s="15"/>
@@ -3679,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86F8E3-D721-8B45-98A8-B52C1938B9FA}">
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:BM46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3796,399 +3819,399 @@
       <c r="A2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35" t="s">
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
@@ -4282,133 +4305,133 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="26" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
@@ -4609,16 +4632,16 @@
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="36"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4631,74 +4654,74 @@
       <c r="M22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="36"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="39"/>
       <c r="R22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S22" s="35" t="s">
+      <c r="S22" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T22" s="35"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V22" s="40" t="s">
+      <c r="V22" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="40" t="s">
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="40" t="s">
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="40" t="s">
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="41"/>
-      <c r="BF22" s="41"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="41"/>
-      <c r="BI22" s="41"/>
-      <c r="BJ22" s="41"/>
-      <c r="BK22" s="41"/>
-      <c r="BL22" s="41"/>
-      <c r="BM22" s="36"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="44"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="44"/>
+      <c r="BI22" s="44"/>
+      <c r="BJ22" s="44"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="44"/>
+      <c r="BM22" s="39"/>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
@@ -4899,16 +4922,16 @@
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="36"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4921,19 +4944,19 @@
       <c r="M25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="36"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="39"/>
       <c r="R25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S25" s="35" t="s">
+      <c r="S25" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T25" s="35"/>
+      <c r="T25" s="38"/>
       <c r="U25" s="1" t="s">
         <v>149</v>
       </c>
@@ -4949,52 +4972,52 @@
       <c r="Y25" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z25" s="40" t="s">
+      <c r="Z25" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="40" t="s">
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="40" t="s">
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="41"/>
-      <c r="BK25" s="41"/>
-      <c r="BL25" s="41"/>
-      <c r="BM25" s="36"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="39"/>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
@@ -5195,16 +5218,16 @@
       <c r="A28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="36"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="1" t="s">
         <v>50</v>
       </c>
@@ -5217,19 +5240,19 @@
       <c r="M28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="36"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="39"/>
       <c r="R28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T28" s="35"/>
+      <c r="T28" s="38"/>
       <c r="U28" s="1" t="s">
         <v>149</v>
       </c>
@@ -5245,52 +5268,52 @@
       <c r="Y28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z28" s="40" t="s">
+      <c r="Z28" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="40" t="s">
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="40" t="s">
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="41"/>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="36"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="39"/>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
@@ -5491,16 +5514,16 @@
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="36"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
@@ -5513,19 +5536,19 @@
       <c r="M31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="36"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="39"/>
       <c r="R31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S31" s="35" t="s">
+      <c r="S31" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T31" s="35"/>
+      <c r="T31" s="38"/>
       <c r="U31" s="1" t="s">
         <v>149</v>
       </c>
@@ -5541,52 +5564,52 @@
       <c r="Y31" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z31" s="40" t="s">
+      <c r="Z31" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="40" t="s">
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="40" t="s">
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="41"/>
-      <c r="BB31" s="41"/>
-      <c r="BC31" s="41"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="41"/>
-      <c r="BL31" s="41"/>
-      <c r="BM31" s="36"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="44"/>
+      <c r="BH31" s="44"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="44"/>
+      <c r="BK31" s="44"/>
+      <c r="BL31" s="44"/>
+      <c r="BM31" s="39"/>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
@@ -5787,16 +5810,16 @@
       <c r="A34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="36"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="1" t="s">
         <v>50</v>
       </c>
@@ -5809,74 +5832,74 @@
       <c r="M34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N34" s="40" t="s">
+      <c r="N34" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="36"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="39"/>
       <c r="R34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S34" s="35" t="s">
+      <c r="S34" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T34" s="35"/>
+      <c r="T34" s="38"/>
       <c r="U34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V34" s="40" t="s">
+      <c r="V34" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="40" t="s">
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="40" t="s">
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="40" t="s">
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="39"/>
+      <c r="AX34" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="36"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+      <c r="BM34" s="39"/>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
@@ -6077,16 +6100,16 @@
       <c r="A37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="36"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="1" t="s">
         <v>50</v>
       </c>
@@ -6099,19 +6122,19 @@
       <c r="M37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N37" s="40" t="s">
+      <c r="N37" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="36"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="39"/>
       <c r="R37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T37" s="35"/>
+      <c r="T37" s="38"/>
       <c r="U37" s="1" t="s">
         <v>161</v>
       </c>
@@ -6127,52 +6150,52 @@
       <c r="Y37" s="17">
         <v>1</v>
       </c>
-      <c r="Z37" s="40" t="s">
+      <c r="Z37" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="40" t="s">
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="40" t="s">
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="39"/>
+      <c r="AX37" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="41"/>
-      <c r="BD37" s="41"/>
-      <c r="BE37" s="41"/>
-      <c r="BF37" s="41"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="41"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="41"/>
-      <c r="BL37" s="41"/>
-      <c r="BM37" s="36"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
+      <c r="BD37" s="44"/>
+      <c r="BE37" s="44"/>
+      <c r="BF37" s="44"/>
+      <c r="BG37" s="44"/>
+      <c r="BH37" s="44"/>
+      <c r="BI37" s="44"/>
+      <c r="BJ37" s="44"/>
+      <c r="BK37" s="44"/>
+      <c r="BL37" s="44"/>
+      <c r="BM37" s="39"/>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
@@ -6373,40 +6396,40 @@
       <c r="A40" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
       <c r="R40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S40" s="35" t="s">
+      <c r="S40" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T40" s="35"/>
+      <c r="T40" s="38"/>
       <c r="U40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V40" s="35" t="s">
+      <c r="V40" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
       <c r="Z40" s="17">
         <v>0</v>
       </c>
@@ -6416,52 +6439,641 @@
       <c r="AB40" s="17">
         <v>0</v>
       </c>
-      <c r="AC40" s="35" t="s">
+      <c r="AC40" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="35"/>
-      <c r="AH40" s="40" t="s">
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="41"/>
-      <c r="AO40" s="41"/>
-      <c r="AP40" s="41"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="41"/>
-      <c r="AV40" s="41"/>
-      <c r="AW40" s="36"/>
-      <c r="AX40" s="40" t="s">
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="44"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="44"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="44"/>
+      <c r="AU40" s="44"/>
+      <c r="AV40" s="44"/>
+      <c r="AW40" s="39"/>
+      <c r="AX40" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="AY40" s="41"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="41"/>
-      <c r="BB40" s="41"/>
-      <c r="BC40" s="41"/>
-      <c r="BD40" s="41"/>
-      <c r="BE40" s="41"/>
-      <c r="BF40" s="41"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="41"/>
-      <c r="BI40" s="41"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="41"/>
-      <c r="BL40" s="41"/>
-      <c r="BM40" s="36"/>
+      <c r="AY40" s="44"/>
+      <c r="AZ40" s="44"/>
+      <c r="BA40" s="44"/>
+      <c r="BB40" s="44"/>
+      <c r="BC40" s="44"/>
+      <c r="BD40" s="44"/>
+      <c r="BE40" s="44"/>
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="44"/>
+      <c r="BI40" s="44"/>
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="44"/>
+      <c r="BM40" s="39"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="16">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1">
+        <v>23</v>
+      </c>
+      <c r="K42" s="1">
+        <v>22</v>
+      </c>
+      <c r="L42" s="1">
+        <v>21</v>
+      </c>
+      <c r="M42" s="1">
+        <v>20</v>
+      </c>
+      <c r="N42" s="1">
+        <v>19</v>
+      </c>
+      <c r="O42" s="1">
+        <v>18</v>
+      </c>
+      <c r="P42" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>16</v>
+      </c>
+      <c r="R42" s="1">
+        <v>15</v>
+      </c>
+      <c r="S42" s="1">
+        <v>14</v>
+      </c>
+      <c r="T42" s="1">
+        <v>13</v>
+      </c>
+      <c r="U42" s="1">
+        <v>12</v>
+      </c>
+      <c r="V42" s="1">
+        <v>11</v>
+      </c>
+      <c r="W42" s="1">
+        <v>10</v>
+      </c>
+      <c r="X42" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>29</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>26</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>23</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>21</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>13</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>12</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>11</v>
+      </c>
+      <c r="BC42" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD42" s="1">
+        <v>9</v>
+      </c>
+      <c r="BE42" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF42" s="1">
+        <v>7</v>
+      </c>
+      <c r="BG42" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH42" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ42" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK42" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.5">
+      <c r="A43" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T43" s="38"/>
+      <c r="U43" s="20">
+        <v>0</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="W43" s="21">
+        <v>1</v>
+      </c>
+      <c r="X43" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="39"/>
+      <c r="AX43" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="44"/>
+      <c r="BD43" s="44"/>
+      <c r="BE43" s="44"/>
+      <c r="BF43" s="44"/>
+      <c r="BG43" s="44"/>
+      <c r="BH43" s="44"/>
+      <c r="BI43" s="44"/>
+      <c r="BJ43" s="44"/>
+      <c r="BK43" s="44"/>
+      <c r="BL43" s="44"/>
+      <c r="BM43" s="39"/>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="16">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1">
+        <v>28</v>
+      </c>
+      <c r="F45" s="1">
+        <v>27</v>
+      </c>
+      <c r="G45" s="1">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1">
+        <v>25</v>
+      </c>
+      <c r="I45" s="1">
+        <v>24</v>
+      </c>
+      <c r="J45" s="1">
+        <v>23</v>
+      </c>
+      <c r="K45" s="1">
+        <v>22</v>
+      </c>
+      <c r="L45" s="1">
+        <v>21</v>
+      </c>
+      <c r="M45" s="1">
+        <v>20</v>
+      </c>
+      <c r="N45" s="1">
+        <v>19</v>
+      </c>
+      <c r="O45" s="1">
+        <v>18</v>
+      </c>
+      <c r="P45" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>16</v>
+      </c>
+      <c r="R45" s="1">
+        <v>15</v>
+      </c>
+      <c r="S45" s="1">
+        <v>14</v>
+      </c>
+      <c r="T45" s="1">
+        <v>13</v>
+      </c>
+      <c r="U45" s="1">
+        <v>12</v>
+      </c>
+      <c r="V45" s="1">
+        <v>11</v>
+      </c>
+      <c r="W45" s="1">
+        <v>10</v>
+      </c>
+      <c r="X45" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>29</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>27</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>26</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>23</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>22</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>21</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>19</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>14</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>13</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>12</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>11</v>
+      </c>
+      <c r="BC45" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD45" s="1">
+        <v>9</v>
+      </c>
+      <c r="BE45" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF45" s="1">
+        <v>7</v>
+      </c>
+      <c r="BG45" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH45" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI45" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ45" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK45" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.5">
+      <c r="A46" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T46" s="38"/>
+      <c r="U46" s="20">
+        <v>0</v>
+      </c>
+      <c r="V46" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="W46" s="21">
+        <v>1</v>
+      </c>
+      <c r="X46" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="39"/>
+      <c r="AX46" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="44"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="81">
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="AH46:AW46"/>
+    <mergeCell ref="AX46:BM46"/>
     <mergeCell ref="AX40:BM40"/>
     <mergeCell ref="B40:Q40"/>
     <mergeCell ref="AC40:AG40"/>
@@ -6533,6 +7145,11 @@
     <mergeCell ref="S34:T34"/>
     <mergeCell ref="V34:Y34"/>
     <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="AX43:BM43"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="AH43:AW43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6544,7 +7161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5304AB-026F-3349-9056-747BF56AB701}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK14" sqref="AK14:AM14"/>
     </sheetView>
   </sheetViews>
@@ -6655,9 +7272,9 @@
       <c r="AJ1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
       <c r="AN1" s="1">
         <v>70</v>
       </c>
@@ -6666,41 +7283,41 @@
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
       <c r="AG2" s="1" t="s">
         <v>291</v>
       </c>
@@ -6710,11 +7327,11 @@
       <c r="AJ2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AK2" s="35" t="s">
+      <c r="AK2" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
       <c r="AN2" s="1">
         <v>68</v>
       </c>
@@ -6723,53 +7340,53 @@
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
       <c r="AH3" s="1">
         <v>96</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
       <c r="AN3" s="1">
         <v>64</v>
       </c>
@@ -6778,53 +7395,53 @@
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
       <c r="AH4" s="1">
         <v>92</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AK4" s="35" t="s">
+      <c r="AK4" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
       <c r="AN4" s="1">
         <v>62</v>
       </c>
@@ -6833,53 +7450,53 @@
       <c r="A5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
       <c r="AH5" s="1">
         <v>88</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AK5" s="35" t="s">
+      <c r="AK5" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
       <c r="AN5" s="1">
         <v>58</v>
       </c>
@@ -6888,53 +7505,53 @@
       <c r="A6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
       <c r="AH6" s="1">
         <v>84</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AK6" s="35" t="s">
+      <c r="AK6" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
       <c r="AN6" s="1">
         <v>54</v>
       </c>
@@ -6943,53 +7560,53 @@
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
       <c r="AH7" s="1">
         <v>80</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AK7" s="35" t="s">
+      <c r="AK7" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
       <c r="AN7" s="1">
         <v>50</v>
       </c>
@@ -6998,53 +7615,53 @@
       <c r="A8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
       <c r="AH8" s="1">
         <v>76</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
       <c r="AN8" s="1">
         <v>48</v>
       </c>
@@ -7053,53 +7670,53 @@
       <c r="A9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
       <c r="AH9" s="1">
         <v>72</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AK9" s="35" t="s">
+      <c r="AK9" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
       <c r="AN9" s="1">
         <v>44</v>
       </c>
@@ -7108,51 +7725,51 @@
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
       <c r="AH10" s="1">
         <v>68</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AK10" s="35" t="s">
+      <c r="AK10" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
       <c r="AN10" s="1">
         <v>40</v>
       </c>
@@ -7161,51 +7778,51 @@
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
       <c r="AH11" s="1">
         <v>64</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AK11" s="35" t="s">
+      <c r="AK11" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
       <c r="AN11" s="1">
         <v>36</v>
       </c>
@@ -7214,51 +7831,51 @@
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
       <c r="AH12" s="1">
         <v>60</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AK12" s="35" t="s">
+      <c r="AK12" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
       <c r="AN12" s="1">
         <v>34</v>
       </c>
@@ -7267,51 +7884,51 @@
       <c r="A13" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
       <c r="AH13" s="1">
         <v>56</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AK13" s="35" t="s">
+      <c r="AK13" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
       <c r="AN13" s="1">
         <v>30</v>
       </c>
@@ -7320,51 +7937,51 @@
       <c r="A14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
       <c r="AH14" s="1">
         <v>52</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AK14" s="35" t="s">
+      <c r="AK14" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
       <c r="AN14" s="1">
         <v>26</v>
       </c>
@@ -7373,51 +7990,51 @@
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
       <c r="AH15" s="1">
         <v>48</v>
       </c>
       <c r="AJ15" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AK15" s="35" t="s">
+      <c r="AK15" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
       <c r="AN15" s="1">
         <v>24</v>
       </c>
@@ -7426,51 +8043,51 @@
       <c r="A16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
       <c r="AH16" s="1">
         <v>44</v>
       </c>
       <c r="AJ16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
       <c r="AN16" s="1">
         <v>20</v>
       </c>
@@ -7479,51 +8096,51 @@
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
       <c r="AH17" s="1">
         <v>40</v>
       </c>
       <c r="AJ17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AK17" s="35" t="s">
+      <c r="AK17" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
       <c r="AN17" s="1">
         <v>18</v>
       </c>
@@ -7532,51 +8149,51 @@
       <c r="A18" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
       <c r="AH18" s="1">
         <v>36</v>
       </c>
       <c r="AJ18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AK18" s="35" t="s">
+      <c r="AK18" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
       <c r="AN18" s="1">
         <v>16</v>
       </c>
@@ -7585,51 +8202,51 @@
       <c r="A19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
       <c r="AH19" s="1">
         <v>32</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AK19" s="35" t="s">
+      <c r="AK19" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
       <c r="AN19" s="1">
         <v>12</v>
       </c>
@@ -7638,51 +8255,51 @@
       <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
       <c r="AH20" s="1">
         <v>28</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AK20" s="35" t="s">
+      <c r="AK20" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
       <c r="AN20" s="1">
         <v>10</v>
       </c>
@@ -7691,53 +8308,53 @@
       <c r="A21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
       <c r="AH21" s="1">
         <v>24</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AK21" s="35" t="s">
+      <c r="AK21" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
       <c r="AN21" s="1">
         <v>6</v>
       </c>
@@ -7746,51 +8363,51 @@
       <c r="A22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
       <c r="AH22" s="1">
         <v>20</v>
       </c>
       <c r="AJ22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AK22" s="35" t="s">
+      <c r="AK22" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
       <c r="AN22" s="1">
         <v>4</v>
       </c>
@@ -7799,53 +8416,53 @@
       <c r="A23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
       <c r="AH23" s="1">
         <v>16</v>
       </c>
       <c r="AJ23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AK23" s="35" t="s">
+      <c r="AK23" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
       <c r="AN23" s="1">
         <v>0</v>
       </c>
@@ -7854,40 +8471,40 @@
       <c r="A24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
       <c r="AH24" s="1">
         <v>12</v>
       </c>
@@ -7896,42 +8513,42 @@
       <c r="A25" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
       <c r="AH25" s="1">
         <v>8</v>
       </c>
@@ -7940,40 +8557,40 @@
       <c r="A26" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
       <c r="AH26" s="1">
         <v>4</v>
       </c>
@@ -7982,42 +8599,42 @@
       <c r="A27" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
       <c r="AH27" s="1">
         <v>0</v>
       </c>
@@ -8095,8 +8712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73047518-AE17-C446-BEDB-245898436B94}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:W4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -8105,650 +8722,650 @@
       <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="38"/>
       <c r="O1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="35"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="E2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="38"/>
       <c r="O2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="W2" s="35"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="W3" s="35"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="38"/>
       <c r="O4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="E8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="E9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="38"/>
+      <c r="J9" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="36" t="s">
         <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="E11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>183</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="E13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="36" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="9"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="36" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="9"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="9"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="9"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="9"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="36"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="9"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -8856,7 +9473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A242CF63-4A11-4D41-A671-1CFFF3A3891F}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -8866,585 +9483,585 @@
       <c r="A1" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="M1" s="35"/>
+      <c r="M1" s="38"/>
       <c r="O1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="W1" s="35"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="E2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="38"/>
       <c r="O2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="35" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="W2" s="35"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="W3" s="35"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="38"/>
       <c r="O4" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="E5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="38"/>
       <c r="O5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35" t="s">
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35" t="s">
+      <c r="S5" s="38"/>
+      <c r="T5" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="W5" s="35"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="E6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="38"/>
       <c r="O6" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35" t="s">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="38"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>363</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="38"/>
       <c r="O7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="W7" s="35"/>
+      <c r="W7" s="38"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="E8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="E9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="38"/>
+      <c r="J9" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="36" t="s">
         <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="E11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="E12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="38"/>
+      <c r="H12" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="E14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="E15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
+      <c r="I15" s="38"/>
+      <c r="J15" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A16" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="36" t="s">
         <v>175</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="M16" s="35"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9452,247 +10069,247 @@
       <c r="A20" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="9"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="36" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="9"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="36" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="9"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="36" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="9"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="33"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="9"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="33"/>
+      <c r="C50" s="36"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="9"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="33"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="9"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="124">

--- a/Learning Operating System/汇编学习.xlsx
+++ b/Learning Operating System/汇编学习.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amd64\learn\Learning Operating System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\Learning Operating System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1148378-4010-4D42-BEE1-482BA3AACCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DF0622-0812-4593-84F8-6D17FAF8C7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8086汇编" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TSS与TCB" sheetId="4" r:id="rId3"/>
     <sheet name="TCB内存映像" sheetId="3" r:id="rId4"/>
     <sheet name="CPL内存映像" sheetId="5" r:id="rId5"/>
+    <sheet name="paging" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="431">
   <si>
     <t>AX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,6 +1721,42 @@
   </si>
   <si>
     <t>陷阱门描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1024-&gt;0x21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1-&gt;0x20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,11 +2379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="17" width="2.5" customWidth="1"/>
@@ -2354,7 +2391,7 @@
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>15</v>
@@ -2419,7 +2456,7 @@
       <c r="AC1" s="38"/>
       <c r="AD1" s="38"/>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2499,7 @@
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2503,7 +2540,7 @@
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2544,7 +2581,7 @@
       <c r="AC4" s="38"/>
       <c r="AD4" s="38"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2622,7 @@
       <c r="AC5" s="38"/>
       <c r="AD5" s="38"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2612,7 +2649,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2649,7 +2686,7 @@
       <c r="AC7" s="45"/>
       <c r="AD7" s="45"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2746,7 +2783,7 @@
       <c r="X10" s="36"/>
       <c r="Y10" s="36"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -2796,7 +2833,7 @@
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +2873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2903,7 @@
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2898,7 +2935,7 @@
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2934,14 +2971,14 @@
       </c>
       <c r="Y15" s="36"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="U16" s="4"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>15</v>
@@ -3001,7 +3038,7 @@
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -3051,7 +3088,7 @@
       </c>
       <c r="Y18" s="36"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="38" t="s">
         <v>55</v>
@@ -3083,7 +3120,7 @@
       <c r="X19" s="30"/>
       <c r="Y19" s="36"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>0</v>
@@ -3145,7 +3182,7 @@
       <c r="X20" s="31"/>
       <c r="Y20" s="36"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="U21" s="6" t="s">
         <v>44</v>
       </c>
@@ -3160,7 +3197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
         <v>49</v>
       </c>
@@ -3193,7 +3230,7 @@
       <c r="X22" s="36"/>
       <c r="Y22" s="30"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
@@ -3224,7 +3261,7 @@
       <c r="X23" s="36"/>
       <c r="Y23" s="31"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -3267,7 +3304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -3302,7 +3339,7 @@
       <c r="X25" s="36"/>
       <c r="Y25" s="30"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -3339,7 +3376,7 @@
       <c r="X26" s="36"/>
       <c r="Y26" s="30"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -3380,7 +3417,7 @@
       </c>
       <c r="Y27" s="30"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -3415,7 +3452,7 @@
       <c r="X28" s="36"/>
       <c r="Y28" s="30"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -3452,7 +3489,7 @@
       <c r="X29" s="36"/>
       <c r="Y29" s="30"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -3493,7 +3530,7 @@
       </c>
       <c r="Y30" s="30"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -3528,7 +3565,7 @@
       <c r="X31" s="36"/>
       <c r="Y31" s="30"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="U32" s="7">
         <v>500</v>
       </c>
@@ -3537,7 +3574,7 @@
       <c r="X32" s="36"/>
       <c r="Y32" s="30"/>
     </row>
-    <row r="33" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="33" spans="19:25" x14ac:dyDescent="0.3">
       <c r="S33" s="10"/>
       <c r="U33" s="6" t="s">
         <v>117</v>
@@ -3549,7 +3586,7 @@
       <c r="X33" s="36"/>
       <c r="Y33" s="30"/>
     </row>
-    <row r="34" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="34" spans="19:25" x14ac:dyDescent="0.3">
       <c r="S34" s="10"/>
       <c r="U34" s="4"/>
       <c r="V34" s="42"/>
@@ -3557,7 +3594,7 @@
       <c r="X34" s="36"/>
       <c r="Y34" s="30"/>
     </row>
-    <row r="35" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="35" spans="19:25" x14ac:dyDescent="0.3">
       <c r="U35" s="7">
         <v>400</v>
       </c>
@@ -3566,7 +3603,7 @@
       <c r="X35" s="36"/>
       <c r="Y35" s="30"/>
     </row>
-    <row r="36" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="36" spans="19:25" x14ac:dyDescent="0.3">
       <c r="U36" s="3" t="s">
         <v>108</v>
       </c>
@@ -3579,14 +3616,14 @@
       </c>
       <c r="Y36" s="30"/>
     </row>
-    <row r="37" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="37" spans="19:25" x14ac:dyDescent="0.3">
       <c r="U37" s="4"/>
       <c r="V37" s="42"/>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="30"/>
     </row>
-    <row r="38" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="38" spans="19:25" x14ac:dyDescent="0.3">
       <c r="U38" s="7">
         <v>0</v>
       </c>
@@ -3595,15 +3632,15 @@
       <c r="X38" s="36"/>
       <c r="Y38" s="31"/>
     </row>
-    <row r="42" spans="19:25" x14ac:dyDescent="0.5">
+    <row r="42" spans="19:25" x14ac:dyDescent="0.3">
       <c r="U42" s="15"/>
     </row>
-    <row r="44" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="44" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="87">
     <mergeCell ref="B6:Q6"/>
@@ -3704,17 +3741,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F86F8E3-D721-8B45-98A8-B52C1938B9FA}">
   <dimension ref="A1:BM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1484375" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="65" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>118</v>
       </c>
@@ -3856,7 +3893,7 @@
       <c r="AF2" s="38"/>
       <c r="AG2" s="38"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -3897,7 +3934,7 @@
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -3938,7 +3975,7 @@
       <c r="AF4" s="38"/>
       <c r="AG4" s="38"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -3979,7 +4016,7 @@
       <c r="AF5" s="38"/>
       <c r="AG5" s="38"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -4018,7 +4055,7 @@
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -4057,7 +4094,7 @@
       <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -4096,7 +4133,7 @@
       <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
@@ -4135,7 +4172,7 @@
       <c r="AF9" s="38"/>
       <c r="AG9" s="38"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>126</v>
       </c>
@@ -4174,7 +4211,7 @@
       <c r="AF10" s="38"/>
       <c r="AG10" s="38"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
@@ -4213,7 +4250,7 @@
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4248,7 +4285,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>152</v>
       </c>
@@ -4301,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -4328,7 +4365,7 @@
       </c>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4349,7 +4386,7 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -4370,7 +4407,7 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="26"/>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -4391,7 +4428,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="26"/>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -4412,7 +4449,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -4433,7 +4470,7 @@
       <c r="P19" s="27"/>
       <c r="Q19" s="28"/>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="16">
         <v>31</v>
@@ -4628,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
@@ -4723,7 +4760,7 @@
       <c r="BL22" s="44"/>
       <c r="BM22" s="39"/>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="16">
         <v>31</v>
@@ -4918,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -5019,7 +5056,7 @@
       <c r="BL25" s="44"/>
       <c r="BM25" s="39"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="16">
         <v>31</v>
@@ -5214,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>146</v>
       </c>
@@ -5315,7 +5352,7 @@
       <c r="BL28" s="44"/>
       <c r="BM28" s="39"/>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="16">
         <v>31</v>
@@ -5510,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
@@ -5611,7 +5648,7 @@
       <c r="BL31" s="44"/>
       <c r="BM31" s="39"/>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="16">
         <v>31</v>
@@ -5806,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>159</v>
       </c>
@@ -5901,7 +5938,7 @@
       <c r="BL34" s="44"/>
       <c r="BM34" s="39"/>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="16">
         <v>31</v>
@@ -6096,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>160</v>
       </c>
@@ -6197,7 +6234,7 @@
       <c r="BL37" s="44"/>
       <c r="BM37" s="39"/>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="16">
         <v>31</v>
@@ -6392,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>285</v>
       </c>
@@ -6483,7 +6520,7 @@
       <c r="BL40" s="44"/>
       <c r="BM40" s="39"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="16">
         <v>31</v>
@@ -6678,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>417</v>
       </c>
@@ -6775,7 +6812,7 @@
       <c r="BL43" s="44"/>
       <c r="BM43" s="39"/>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="16">
         <v>31</v>
@@ -6970,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>421</v>
       </c>
@@ -7165,12 +7202,12 @@
       <selection activeCell="AK14" sqref="AK14:AM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="33" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>31</v>
@@ -7279,7 +7316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
@@ -7336,7 +7373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
@@ -7391,7 +7428,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -7446,7 +7483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>326</v>
       </c>
@@ -7501,7 +7538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>325</v>
       </c>
@@ -7556,7 +7593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
@@ -7611,7 +7648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>323</v>
       </c>
@@ -7666,7 +7703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>322</v>
       </c>
@@ -7721,7 +7758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
@@ -7774,7 +7811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -7827,7 +7864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
@@ -7880,7 +7917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>318</v>
       </c>
@@ -7933,7 +7970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>317</v>
       </c>
@@ -7986,7 +8023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
@@ -8039,7 +8076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>315</v>
       </c>
@@ -8092,7 +8129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
@@ -8145,7 +8182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>313</v>
       </c>
@@ -8198,7 +8235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>312</v>
       </c>
@@ -8251,7 +8288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
@@ -8304,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>310</v>
       </c>
@@ -8359,7 +8396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>309</v>
       </c>
@@ -8412,7 +8449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>308</v>
       </c>
@@ -8467,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>307</v>
       </c>
@@ -8509,7 +8546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>306</v>
       </c>
@@ -8553,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>305</v>
       </c>
@@ -8595,7 +8632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>304</v>
       </c>
@@ -8716,9 +8753,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
@@ -8767,7 +8804,7 @@
       </c>
       <c r="W1" s="38"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -8810,7 +8847,7 @@
       </c>
       <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>164</v>
       </c>
@@ -8855,7 +8892,7 @@
       </c>
       <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>167</v>
       </c>
@@ -8904,7 +8941,7 @@
       </c>
       <c r="W4" s="38"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -8928,7 +8965,7 @@
       </c>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>171</v>
       </c>
@@ -8954,7 +8991,7 @@
       </c>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>172</v>
       </c>
@@ -8984,7 +9021,7 @@
       </c>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -9008,7 +9045,7 @@
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>173</v>
       </c>
@@ -9034,7 +9071,7 @@
       </c>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>176</v>
       </c>
@@ -9064,7 +9101,7 @@
       </c>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>177</v>
       </c>
@@ -9090,7 +9127,7 @@
       </c>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>180</v>
       </c>
@@ -9120,7 +9157,7 @@
       </c>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -9144,24 +9181,24 @@
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
@@ -9172,29 +9209,29 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>184</v>
       </c>
@@ -9205,29 +9242,29 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>192</v>
       </c>
@@ -9238,29 +9275,29 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>196</v>
       </c>
@@ -9271,19 +9308,19 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>199</v>
       </c>
@@ -9292,19 +9329,19 @@
       </c>
       <c r="C35" s="36"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>202</v>
       </c>
@@ -9313,19 +9350,19 @@
       </c>
       <c r="C38" s="36"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>205</v>
       </c>
@@ -9334,19 +9371,19 @@
       </c>
       <c r="C41" s="36"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -9355,12 +9392,12 @@
       </c>
       <c r="C44" s="36"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>209</v>
       </c>
@@ -9474,12 +9511,12 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="C41" sqref="A1:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>364</v>
       </c>
@@ -9528,7 +9565,7 @@
       </c>
       <c r="W1" s="38"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -9571,7 +9608,7 @@
       </c>
       <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>365</v>
       </c>
@@ -9616,7 +9653,7 @@
       </c>
       <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>366</v>
       </c>
@@ -9665,7 +9702,7 @@
       </c>
       <c r="W4" s="38"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -9708,7 +9745,7 @@
       </c>
       <c r="W5" s="38"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>367</v>
       </c>
@@ -9753,7 +9790,7 @@
       </c>
       <c r="W6" s="38"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>368</v>
       </c>
@@ -9802,7 +9839,7 @@
       </c>
       <c r="W7" s="38"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -9826,7 +9863,7 @@
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>369</v>
       </c>
@@ -9852,7 +9889,7 @@
       </c>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>370</v>
       </c>
@@ -9882,7 +9919,7 @@
       </c>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -9906,7 +9943,7 @@
       </c>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>164</v>
       </c>
@@ -9932,7 +9969,7 @@
       </c>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>167</v>
       </c>
@@ -9962,7 +9999,7 @@
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -9986,7 +10023,7 @@
       </c>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>171</v>
       </c>
@@ -10012,7 +10049,7 @@
       </c>
       <c r="M15" s="38"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>172</v>
       </c>
@@ -10042,19 +10079,19 @@
       </c>
       <c r="M16" s="38"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>176</v>
       </c>
@@ -10065,14 +10102,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>180</v>
       </c>
@@ -10083,29 +10120,29 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>188</v>
       </c>
@@ -10116,29 +10153,29 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>184</v>
       </c>
@@ -10149,29 +10186,29 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>192</v>
       </c>
@@ -10182,29 +10219,29 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>377</v>
       </c>
@@ -10215,19 +10252,19 @@
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>375</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>376</v>
       </c>
@@ -10236,19 +10273,19 @@
       </c>
       <c r="C44" s="36"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>373</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>374</v>
       </c>
@@ -10257,19 +10294,19 @@
       </c>
       <c r="C47" s="36"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>372</v>
       </c>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>371</v>
       </c>
@@ -10278,19 +10315,19 @@
       </c>
       <c r="C50" s="36"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>208</v>
       </c>
@@ -10299,12 +10336,12 @@
       </c>
       <c r="C53" s="36"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>209</v>
       </c>
@@ -10441,4 +10478,122 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C121F5-C5BE-48BF-BCBD-2F1FCC0EC401}">
+  <dimension ref="A4:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Learning Operating System/汇编学习.xlsx
+++ b/Learning Operating System/汇编学习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\Learning Operating System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DF0622-0812-4593-84F8-6D17FAF8C7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148CD84-8E2B-41F2-860A-3248AF980D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8086汇编" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="440">
   <si>
     <t>AX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1740,10 +1740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x2000c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1752,11 +1748,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDT1024-&gt;0x21000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDT1-&gt;0x20000</t>
+    <t>0x21fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1024(0x20000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1(0x21000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1024-&gt;PD1-&gt;P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1024-&gt;PD1-&gt;P256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDT1024-&gt;PD1-&gt;P1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x22000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21ffc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20ffc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x213ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x213fc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2022,6 +2058,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,15 +2115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2060,36 +2126,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2383,7 +2419,7 @@
       <selection activeCell="J2" sqref="J2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="17" width="2.5" customWidth="1"/>
@@ -2391,7 +2427,7 @@
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>15</v>
@@ -2443,347 +2479,347 @@
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-    </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="U3" s="38" t="s">
+      <c r="S3" s="27"/>
+      <c r="U3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="40"/>
-      <c r="U4" s="38" t="s">
+      <c r="S4" s="27"/>
+      <c r="U4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="40"/>
-      <c r="U5" s="38" t="s">
+      <c r="S5" s="27"/>
+      <c r="U5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="39"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="39"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="36"/>
-      <c r="U7" s="45" t="s">
+      <c r="S7" s="28"/>
+      <c r="U7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="39"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="39"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="36"/>
+      <c r="S9" s="28"/>
       <c r="U9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36" t="s">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y9" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="36" t="s">
+      <c r="S10" s="28" t="s">
         <v>101</v>
       </c>
       <c r="U10" s="4"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V10" s="30"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -2824,161 +2860,161 @@
       <c r="R11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="36"/>
+      <c r="S11" s="28"/>
       <c r="U11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="28" t="s">
         <v>76</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="36" t="s">
+      <c r="V12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36" t="s">
+      <c r="W12" s="28"/>
+      <c r="X12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="36" t="s">
+      <c r="Y12" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="36"/>
+      <c r="S13" s="28"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
       <c r="R14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="36"/>
+      <c r="S14" s="28"/>
       <c r="U14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="36"/>
+      <c r="S15" s="28"/>
       <c r="U15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="32" t="s">
+      <c r="V15" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="33"/>
-      <c r="X15" s="36" t="s">
+      <c r="W15" s="43"/>
+      <c r="X15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="36"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y15" s="28"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
       <c r="U16" s="4"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>15</v>
@@ -3033,12 +3069,12 @@
       <c r="U17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -3064,63 +3100,63 @@
       <c r="I18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="1"/>
       <c r="S18" s="10"/>
       <c r="U18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V18" s="23" t="s">
+      <c r="V18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="29" t="s">
+      <c r="W18" s="37"/>
+      <c r="X18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="36"/>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="28"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="1"/>
       <c r="S19" s="10"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="36"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V19" s="38"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="28"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>0</v>
@@ -3177,91 +3213,91 @@
       <c r="U20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="36"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V20" s="40"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="28"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.5">
       <c r="U21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="40" t="s">
+      <c r="V21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="40"/>
-      <c r="X21" s="36" t="s">
+      <c r="W21" s="27"/>
+      <c r="X21" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" s="29" t="s">
+      <c r="Y21" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="43" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="39"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="30"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="38" t="s">
+      <c r="V22" s="30"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="32"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
       <c r="U23" s="14">
         <v>8000</v>
       </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="31"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="33"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -3271,40 +3307,40 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38" t="s">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
       <c r="U24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V24" s="37" t="s">
+      <c r="V24" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="W24" s="38"/>
-      <c r="X24" s="36" t="s">
+      <c r="W24" s="26"/>
+      <c r="X24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Y24" s="29" t="s">
+      <c r="Y24" s="31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -3314,32 +3350,32 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38" t="s">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="30"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V25" s="25"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="32"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -3349,34 +3385,34 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38" t="s">
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
       <c r="U26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="30"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="32"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -3386,38 +3422,38 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38" t="s">
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
       <c r="U27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V27" s="40" t="s">
+      <c r="V27" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="W27" s="40"/>
-      <c r="X27" s="36" t="s">
+      <c r="W27" s="27"/>
+      <c r="X27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Y27" s="30"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y27" s="32"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -3427,32 +3463,32 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38" t="s">
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="30"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V28" s="30"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="32"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -3462,34 +3498,34 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38" t="s">
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
       <c r="U29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="30"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="32"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -3499,38 +3535,38 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38" t="s">
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
       <c r="U30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="V30" s="40" t="s">
+      <c r="V30" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36" t="s">
+      <c r="W30" s="28"/>
+      <c r="X30" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="Y30" s="30"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y30" s="32"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -3540,109 +3576,180 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38" t="s">
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="30"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V31" s="34"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="32"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.5">
       <c r="U32" s="7">
         <v>500</v>
       </c>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="30"/>
-    </row>
-    <row r="33" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="32"/>
+    </row>
+    <row r="33" spans="19:25" x14ac:dyDescent="0.5">
       <c r="S33" s="10"/>
       <c r="U33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="40" t="s">
+      <c r="V33" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="30"/>
-    </row>
-    <row r="34" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="32"/>
+    </row>
+    <row r="34" spans="19:25" x14ac:dyDescent="0.5">
       <c r="S34" s="10"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="30"/>
-    </row>
-    <row r="35" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="V34" s="34"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="32"/>
+    </row>
+    <row r="35" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U35" s="7">
         <v>400</v>
       </c>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="30"/>
-    </row>
-    <row r="36" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="32"/>
+    </row>
+    <row r="36" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="40" t="s">
+      <c r="V36" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36" t="s">
+      <c r="W36" s="28"/>
+      <c r="X36" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="Y36" s="30"/>
-    </row>
-    <row r="37" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="Y36" s="32"/>
+    </row>
+    <row r="37" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U37" s="4"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="30"/>
-    </row>
-    <row r="38" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="V37" s="34"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="32"/>
+    </row>
+    <row r="38" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U38" s="7">
         <v>0</v>
       </c>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="31"/>
-    </row>
-    <row r="42" spans="19:25" x14ac:dyDescent="0.3">
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="33"/>
+    </row>
+    <row r="42" spans="19:25" x14ac:dyDescent="0.5">
       <c r="U42" s="15"/>
     </row>
-    <row r="44" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="19:25" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="V18:W20"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="V15:W17"/>
+    <mergeCell ref="X15:X17"/>
+    <mergeCell ref="Y12:Y20"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="V27:W29"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="V30:W32"/>
+    <mergeCell ref="X30:X35"/>
+    <mergeCell ref="V33:W35"/>
+    <mergeCell ref="V36:W38"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="V21:W23"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="Y21:Y23"/>
+    <mergeCell ref="Y24:Y38"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S15"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="U1:AD1"/>
     <mergeCell ref="U2:AD2"/>
@@ -3659,77 +3766,6 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="V12:W14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="V21:W23"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="Y21:Y23"/>
-    <mergeCell ref="Y24:Y38"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="V36:W38"/>
-    <mergeCell ref="X36:X38"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="V27:W29"/>
-    <mergeCell ref="X27:X29"/>
-    <mergeCell ref="V30:W32"/>
-    <mergeCell ref="X30:X35"/>
-    <mergeCell ref="V33:W35"/>
-    <mergeCell ref="V18:W20"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="V15:W17"/>
-    <mergeCell ref="X15:X17"/>
-    <mergeCell ref="Y12:Y20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,13 +3781,13 @@
       <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1484375" customWidth="1"/>
     <col min="2" max="65" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -3852,405 +3888,405 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38" t="s">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4285,7 +4321,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>152</v>
       </c>
@@ -4338,139 +4374,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="29" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="Q14" s="24"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="B19" s="40"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="16">
         <v>31</v>
@@ -4665,20 +4701,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="39"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
@@ -4691,76 +4727,76 @@
       <c r="M22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="39"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
       <c r="R22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T22" s="38"/>
+      <c r="T22" s="26"/>
       <c r="U22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V22" s="43" t="s">
+      <c r="V22" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="43" t="s">
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="43" t="s">
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="43" t="s">
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
-      <c r="BM22" s="39"/>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="24"/>
+      <c r="BH22" s="24"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="25"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="16">
         <v>31</v>
@@ -4955,20 +4991,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="39"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4981,19 +5017,19 @@
       <c r="M25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N25" s="43" t="s">
+      <c r="N25" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="39"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
       <c r="R25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T25" s="38"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="1" t="s">
         <v>149</v>
       </c>
@@ -5009,54 +5045,54 @@
       <c r="Y25" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z25" s="43" t="s">
+      <c r="Z25" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="43" t="s">
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="43" t="s">
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-      <c r="BM25" s="39"/>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="24"/>
+      <c r="BJ25" s="24"/>
+      <c r="BK25" s="24"/>
+      <c r="BL25" s="24"/>
+      <c r="BM25" s="25"/>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="16">
         <v>31</v>
@@ -5251,20 +5287,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="1" t="s">
         <v>50</v>
       </c>
@@ -5277,19 +5313,19 @@
       <c r="M28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N28" s="43" t="s">
+      <c r="N28" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="39"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
       <c r="R28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S28" s="38" t="s">
+      <c r="S28" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T28" s="38"/>
+      <c r="T28" s="26"/>
       <c r="U28" s="1" t="s">
         <v>149</v>
       </c>
@@ -5305,54 +5341,54 @@
       <c r="Y28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z28" s="43" t="s">
+      <c r="Z28" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="43" t="s">
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="39"/>
-      <c r="AX28" s="43" t="s">
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-      <c r="BM28" s="39"/>
-    </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="24"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="24"/>
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="24"/>
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="25"/>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="16">
         <v>31</v>
@@ -5547,20 +5583,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
@@ -5573,19 +5609,19 @@
       <c r="M31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="43" t="s">
+      <c r="N31" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="39"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="25"/>
       <c r="R31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S31" s="38" t="s">
+      <c r="S31" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T31" s="38"/>
+      <c r="T31" s="26"/>
       <c r="U31" s="1" t="s">
         <v>149</v>
       </c>
@@ -5601,54 +5637,54 @@
       <c r="Y31" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Z31" s="43" t="s">
+      <c r="Z31" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="43" t="s">
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="43" t="s">
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
-      <c r="BM31" s="39"/>
-    </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="24"/>
+      <c r="BD31" s="24"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24"/>
+      <c r="BJ31" s="24"/>
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="25"/>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
       <c r="B33" s="16">
         <v>31</v>
@@ -5843,20 +5879,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="39"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="1" t="s">
         <v>50</v>
       </c>
@@ -5869,76 +5905,76 @@
       <c r="M34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N34" s="43" t="s">
+      <c r="N34" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="39"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="25"/>
       <c r="R34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S34" s="38" t="s">
+      <c r="S34" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T34" s="38"/>
+      <c r="T34" s="26"/>
       <c r="U34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V34" s="43" t="s">
+      <c r="V34" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="43" t="s">
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="43" t="s">
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="39"/>
-      <c r="AX34" s="43" t="s">
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
+      <c r="AP34" s="24"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="24"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="39"/>
-    </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="24"/>
+      <c r="BC34" s="24"/>
+      <c r="BD34" s="24"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="24"/>
+      <c r="BG34" s="24"/>
+      <c r="BH34" s="24"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="24"/>
+      <c r="BK34" s="24"/>
+      <c r="BL34" s="24"/>
+      <c r="BM34" s="25"/>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="B36" s="16">
         <v>31</v>
@@ -6133,20 +6169,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="39"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="1" t="s">
         <v>50</v>
       </c>
@@ -6159,19 +6195,19 @@
       <c r="M37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N37" s="43" t="s">
+      <c r="N37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="39"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
       <c r="R37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S37" s="38" t="s">
+      <c r="S37" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T37" s="38"/>
+      <c r="T37" s="26"/>
       <c r="U37" s="1" t="s">
         <v>161</v>
       </c>
@@ -6187,54 +6223,54 @@
       <c r="Y37" s="17">
         <v>1</v>
       </c>
-      <c r="Z37" s="43" t="s">
+      <c r="Z37" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="43" t="s">
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="39"/>
-      <c r="AX37" s="43" t="s">
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="24"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AY37" s="44"/>
-      <c r="AZ37" s="44"/>
-      <c r="BA37" s="44"/>
-      <c r="BB37" s="44"/>
-      <c r="BC37" s="44"/>
-      <c r="BD37" s="44"/>
-      <c r="BE37" s="44"/>
-      <c r="BF37" s="44"/>
-      <c r="BG37" s="44"/>
-      <c r="BH37" s="44"/>
-      <c r="BI37" s="44"/>
-      <c r="BJ37" s="44"/>
-      <c r="BK37" s="44"/>
-      <c r="BL37" s="44"/>
-      <c r="BM37" s="39"/>
-    </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="24"/>
+      <c r="BB37" s="24"/>
+      <c r="BC37" s="24"/>
+      <c r="BD37" s="24"/>
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="24"/>
+      <c r="BJ37" s="24"/>
+      <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
+      <c r="BM37" s="25"/>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="B39" s="16">
         <v>31</v>
@@ -6429,44 +6465,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
       <c r="R40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S40" s="38" t="s">
+      <c r="S40" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T40" s="38"/>
+      <c r="T40" s="26"/>
       <c r="U40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V40" s="38" t="s">
+      <c r="V40" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
       <c r="Z40" s="17">
         <v>0</v>
       </c>
@@ -6476,51 +6512,51 @@
       <c r="AB40" s="17">
         <v>0</v>
       </c>
-      <c r="AC40" s="38" t="s">
+      <c r="AC40" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="43" t="s">
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="44"/>
-      <c r="AN40" s="44"/>
-      <c r="AO40" s="44"/>
-      <c r="AP40" s="44"/>
-      <c r="AQ40" s="44"/>
-      <c r="AR40" s="44"/>
-      <c r="AS40" s="44"/>
-      <c r="AT40" s="44"/>
-      <c r="AU40" s="44"/>
-      <c r="AV40" s="44"/>
-      <c r="AW40" s="39"/>
-      <c r="AX40" s="43" t="s">
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="24"/>
+      <c r="AS40" s="24"/>
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="24"/>
+      <c r="AV40" s="24"/>
+      <c r="AW40" s="25"/>
+      <c r="AX40" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="AY40" s="44"/>
-      <c r="AZ40" s="44"/>
-      <c r="BA40" s="44"/>
-      <c r="BB40" s="44"/>
-      <c r="BC40" s="44"/>
-      <c r="BD40" s="44"/>
-      <c r="BE40" s="44"/>
-      <c r="BF40" s="44"/>
-      <c r="BG40" s="44"/>
-      <c r="BH40" s="44"/>
-      <c r="BI40" s="44"/>
-      <c r="BJ40" s="44"/>
-      <c r="BK40" s="44"/>
-      <c r="BL40" s="44"/>
-      <c r="BM40" s="39"/>
-    </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="24"/>
+      <c r="BA40" s="24"/>
+      <c r="BB40" s="24"/>
+      <c r="BC40" s="24"/>
+      <c r="BD40" s="24"/>
+      <c r="BE40" s="24"/>
+      <c r="BF40" s="24"/>
+      <c r="BG40" s="24"/>
+      <c r="BH40" s="24"/>
+      <c r="BI40" s="24"/>
+      <c r="BJ40" s="24"/>
+      <c r="BK40" s="24"/>
+      <c r="BL40" s="24"/>
+      <c r="BM40" s="25"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="16">
         <v>31</v>
@@ -6715,35 +6751,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
       <c r="R43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S43" s="38" t="s">
+      <c r="S43" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T43" s="38"/>
+      <c r="T43" s="26"/>
       <c r="U43" s="20">
         <v>0</v>
       </c>
@@ -6768,51 +6804,51 @@
       <c r="AB43" s="17">
         <v>0</v>
       </c>
-      <c r="AC43" s="38" t="s">
+      <c r="AC43" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
-      <c r="AF43" s="38"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="43" t="s">
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
-      <c r="AU43" s="44"/>
-      <c r="AV43" s="44"/>
-      <c r="AW43" s="39"/>
-      <c r="AX43" s="43" t="s">
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="25"/>
+      <c r="AX43" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="AY43" s="44"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="44"/>
-      <c r="BB43" s="44"/>
-      <c r="BC43" s="44"/>
-      <c r="BD43" s="44"/>
-      <c r="BE43" s="44"/>
-      <c r="BF43" s="44"/>
-      <c r="BG43" s="44"/>
-      <c r="BH43" s="44"/>
-      <c r="BI43" s="44"/>
-      <c r="BJ43" s="44"/>
-      <c r="BK43" s="44"/>
-      <c r="BL43" s="44"/>
-      <c r="BM43" s="39"/>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="24"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="24"/>
+      <c r="BI43" s="24"/>
+      <c r="BJ43" s="24"/>
+      <c r="BK43" s="24"/>
+      <c r="BL43" s="24"/>
+      <c r="BM43" s="25"/>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="B45" s="16">
         <v>31</v>
@@ -7007,35 +7043,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
       <c r="R46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S46" s="38" t="s">
+      <c r="S46" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T46" s="38"/>
+      <c r="T46" s="26"/>
       <c r="U46" s="20">
         <v>0</v>
       </c>
@@ -7060,99 +7096,70 @@
       <c r="AB46" s="17">
         <v>0</v>
       </c>
-      <c r="AC46" s="38" t="s">
+      <c r="AC46" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="43" t="s">
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="AI46" s="44"/>
-      <c r="AJ46" s="44"/>
-      <c r="AK46" s="44"/>
-      <c r="AL46" s="44"/>
-      <c r="AM46" s="44"/>
-      <c r="AN46" s="44"/>
-      <c r="AO46" s="44"/>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44"/>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44"/>
-      <c r="AT46" s="44"/>
-      <c r="AU46" s="44"/>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="39"/>
-      <c r="AX46" s="43" t="s">
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="24"/>
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="24"/>
+      <c r="AV46" s="24"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="AY46" s="44"/>
-      <c r="AZ46" s="44"/>
-      <c r="BA46" s="44"/>
-      <c r="BB46" s="44"/>
-      <c r="BC46" s="44"/>
-      <c r="BD46" s="44"/>
-      <c r="BE46" s="44"/>
-      <c r="BF46" s="44"/>
-      <c r="BG46" s="44"/>
-      <c r="BH46" s="44"/>
-      <c r="BI46" s="44"/>
-      <c r="BJ46" s="44"/>
-      <c r="BK46" s="44"/>
-      <c r="BL46" s="44"/>
-      <c r="BM46" s="39"/>
+      <c r="AY46" s="24"/>
+      <c r="AZ46" s="24"/>
+      <c r="BA46" s="24"/>
+      <c r="BB46" s="24"/>
+      <c r="BC46" s="24"/>
+      <c r="BD46" s="24"/>
+      <c r="BE46" s="24"/>
+      <c r="BF46" s="24"/>
+      <c r="BG46" s="24"/>
+      <c r="BH46" s="24"/>
+      <c r="BI46" s="24"/>
+      <c r="BJ46" s="24"/>
+      <c r="BK46" s="24"/>
+      <c r="BL46" s="24"/>
+      <c r="BM46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="AH46:AW46"/>
-    <mergeCell ref="AX46:BM46"/>
-    <mergeCell ref="AX40:BM40"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="AH40:AW40"/>
-    <mergeCell ref="AX31:BM31"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="AH31:AW31"/>
-    <mergeCell ref="AH25:AW25"/>
-    <mergeCell ref="AX25:BM25"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="AH28:AW28"/>
-    <mergeCell ref="AX28:BM28"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="AX22:BM22"/>
-    <mergeCell ref="AH22:AW22"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="R9:AG9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:AG10"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="R11:AG11"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="R7:AG7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="AX43:BM43"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="AH43:AW43"/>
+    <mergeCell ref="AH34:AW34"/>
+    <mergeCell ref="AX34:BM34"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Z37:AG37"/>
+    <mergeCell ref="AH37:AW37"/>
+    <mergeCell ref="AX37:BM37"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Z34:AG34"/>
     <mergeCell ref="O14:O19"/>
     <mergeCell ref="P14:Q19"/>
     <mergeCell ref="B14:N19"/>
@@ -7169,24 +7176,53 @@
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="Z5:AG5"/>
     <mergeCell ref="R6:AG6"/>
-    <mergeCell ref="AH34:AW34"/>
-    <mergeCell ref="AX34:BM34"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="AH37:AW37"/>
-    <mergeCell ref="AX37:BM37"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="AX43:BM43"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="AH43:AW43"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="R7:AG7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="R9:AG9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="R11:AG11"/>
+    <mergeCell ref="AX22:BM22"/>
+    <mergeCell ref="AH22:AW22"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AH25:AW25"/>
+    <mergeCell ref="AX25:BM25"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="AH28:AW28"/>
+    <mergeCell ref="AX28:BM28"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="AX31:BM31"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Z31:AG31"/>
+    <mergeCell ref="AH31:AW31"/>
+    <mergeCell ref="AX40:BM40"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="AH40:AW40"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="AH46:AW46"/>
+    <mergeCell ref="AX46:BM46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,12 +7238,12 @@
       <selection activeCell="AK14" sqref="AK14:AM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="33" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>31</v>
@@ -7309,52 +7345,52 @@
       <c r="AJ1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
       <c r="AN1" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
       <c r="AG2" s="1" t="s">
         <v>291</v>
       </c>
@@ -7364,1365 +7400,1320 @@
       <c r="AJ2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
       <c r="AN2" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
       <c r="AH3" s="1">
         <v>96</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AK3" s="38" t="s">
+      <c r="AK3" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
       <c r="AN3" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
       <c r="AH4" s="1">
         <v>92</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AK4" s="38" t="s">
+      <c r="AK4" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
       <c r="AN4" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
       <c r="AH5" s="1">
         <v>88</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AK5" s="38" t="s">
+      <c r="AK5" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
       <c r="AN5" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
       <c r="AH6" s="1">
         <v>84</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AK6" s="38" t="s">
+      <c r="AK6" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
       <c r="AN6" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
       <c r="AH7" s="1">
         <v>80</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AK7" s="38" t="s">
+      <c r="AK7" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
       <c r="AN7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
       <c r="AH8" s="1">
         <v>76</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AK8" s="38" t="s">
+      <c r="AK8" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
       <c r="AN8" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
       <c r="AH9" s="1">
         <v>72</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AK9" s="38" t="s">
+      <c r="AK9" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
       <c r="AN9" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
       <c r="AH10" s="1">
         <v>68</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AK10" s="38" t="s">
+      <c r="AK10" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
       <c r="AN10" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
       <c r="AH11" s="1">
         <v>64</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AK11" s="38" t="s">
+      <c r="AK11" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
       <c r="AN11" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
       <c r="AH12" s="1">
         <v>60</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AK12" s="38" t="s">
+      <c r="AK12" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
       <c r="AN12" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
       <c r="AH13" s="1">
         <v>56</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AK13" s="38" t="s">
+      <c r="AK13" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
       <c r="AN13" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
       <c r="AH14" s="1">
         <v>52</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AK14" s="38" t="s">
+      <c r="AK14" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
       <c r="AN14" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
       <c r="AH15" s="1">
         <v>48</v>
       </c>
       <c r="AJ15" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AK15" s="38" t="s">
+      <c r="AK15" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
       <c r="AN15" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
       <c r="AH16" s="1">
         <v>44</v>
       </c>
       <c r="AJ16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AK16" s="38" t="s">
+      <c r="AK16" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
       <c r="AN16" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
       <c r="AH17" s="1">
         <v>40</v>
       </c>
       <c r="AJ17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AK17" s="38" t="s">
+      <c r="AK17" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
       <c r="AN17" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
       <c r="AH18" s="1">
         <v>36</v>
       </c>
       <c r="AJ18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AK18" s="38" t="s">
+      <c r="AK18" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
       <c r="AN18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
       <c r="AH19" s="1">
         <v>32</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AK19" s="38" t="s">
+      <c r="AK19" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
       <c r="AN19" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
       <c r="AH20" s="1">
         <v>28</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AK20" s="38" t="s">
+      <c r="AK20" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
       <c r="AN20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
       <c r="AH21" s="1">
         <v>24</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AK21" s="38" t="s">
+      <c r="AK21" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
       <c r="AN21" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
       <c r="AH22" s="1">
         <v>20</v>
       </c>
       <c r="AJ22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AK22" s="38" t="s">
+      <c r="AK22" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
       <c r="AN22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
       <c r="AH23" s="1">
         <v>16</v>
       </c>
       <c r="AJ23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AK23" s="38" t="s">
+      <c r="AK23" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
       <c r="AN23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
       <c r="AH24" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
       <c r="AH25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
       <c r="AH26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
       <c r="AH27" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="R2:AF2"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R5:AG5"/>
-    <mergeCell ref="R6:AG6"/>
-    <mergeCell ref="R7:AG7"/>
-    <mergeCell ref="R8:AG8"/>
-    <mergeCell ref="R9:AG9"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="R21:AG21"/>
-    <mergeCell ref="B10:AG10"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="B12:AG12"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B14:AG14"/>
-    <mergeCell ref="B15:AG15"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="B17:AG17"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="B19:AG19"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="B22:AG22"/>
-    <mergeCell ref="B24:AG24"/>
-    <mergeCell ref="B26:AG26"/>
-    <mergeCell ref="R27:AG27"/>
-    <mergeCell ref="R25:AG25"/>
-    <mergeCell ref="R23:AG23"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AK6:AM6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AK7:AM7"/>
     <mergeCell ref="AK20:AM20"/>
     <mergeCell ref="AK21:AM21"/>
     <mergeCell ref="AK22:AM22"/>
@@ -8739,6 +8730,51 @@
     <mergeCell ref="AK11:AM11"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B22:AG22"/>
+    <mergeCell ref="B24:AG24"/>
+    <mergeCell ref="B26:AG26"/>
+    <mergeCell ref="R27:AG27"/>
+    <mergeCell ref="R25:AG25"/>
+    <mergeCell ref="R23:AG23"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="R21:AG21"/>
+    <mergeCell ref="B10:AG10"/>
+    <mergeCell ref="B11:AG11"/>
+    <mergeCell ref="B12:AG12"/>
+    <mergeCell ref="B13:AG13"/>
+    <mergeCell ref="B14:AG14"/>
+    <mergeCell ref="B15:AG15"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="B17:AG17"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="B19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R5:AG5"/>
+    <mergeCell ref="R6:AG6"/>
+    <mergeCell ref="R7:AG7"/>
+    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="R9:AG9"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="R2:AF2"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="B4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8753,37 +8789,37 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="26"/>
       <c r="O1" s="1" t="s">
         <v>362</v>
       </c>
@@ -8791,685 +8827,635 @@
         <v>278</v>
       </c>
       <c r="Q1" s="47"/>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W1" s="26"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="E2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="38"/>
+      <c r="M2" s="26"/>
       <c r="O2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="E3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="26"/>
       <c r="O3" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="26"/>
       <c r="O4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="s">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="W4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="E6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="28" t="s">
         <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="E8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="E9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="E11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="28" t="s">
         <v>183</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38" t="s">
+      <c r="K12" s="26"/>
+      <c r="L12" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="E13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="9"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="9"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="9"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="9"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="9"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="36"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="9"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="36"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="C32:C46"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
@@ -9486,20 +9472,70 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C32:C46"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9511,40 +9547,40 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="A1:C55"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="26"/>
       <c r="O1" s="1" t="s">
         <v>400</v>
       </c>
@@ -9552,42 +9588,42 @@
         <v>413</v>
       </c>
       <c r="Q1" s="47"/>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="W1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W1" s="26"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A2" s="9"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="E2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="M2" s="38"/>
+      <c r="M2" s="26"/>
       <c r="O2" s="1" t="s">
         <v>399</v>
       </c>
@@ -9595,44 +9631,44 @@
         <v>412</v>
       </c>
       <c r="Q2" s="47"/>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="E3" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="26"/>
       <c r="O3" s="1" t="s">
         <v>398</v>
       </c>
@@ -9640,48 +9676,48 @@
         <v>278</v>
       </c>
       <c r="Q3" s="47"/>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="27" t="s">
         <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="26"/>
       <c r="O4" s="1" t="s">
         <v>362</v>
       </c>
@@ -9689,667 +9725,767 @@
         <v>410</v>
       </c>
       <c r="Q4" s="47"/>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="W4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="E5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="M5" s="38"/>
+      <c r="M5" s="26"/>
       <c r="O5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38" t="s">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="W5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="E6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="38"/>
+      <c r="M6" s="26"/>
       <c r="O6" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38" t="s">
+      <c r="U6" s="26"/>
+      <c r="V6" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="W6" s="38"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="28" t="s">
         <v>363</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="26"/>
       <c r="O7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
+      <c r="U7" s="26"/>
+      <c r="V7" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="W7" s="38"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="E8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="E9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>363</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A11" s="9"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="E11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="E12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38" t="s">
+      <c r="K12" s="26"/>
+      <c r="L12" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38" t="s">
+      <c r="K13" s="26"/>
+      <c r="L13" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A14" s="9"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="E14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="E15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="26"/>
+      <c r="L15" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A16" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="28" t="s">
         <v>175</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="9"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="9"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="9"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="9"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="9"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="36"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="9"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="36"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="9"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="36"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="9"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="36"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="9"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
@@ -10374,106 +10510,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A24:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10482,115 +10518,213 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C121F5-C5BE-48BF-BCBD-2F1FCC0EC401}">
-  <dimension ref="A4:C16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B2" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B14" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A16" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B16" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B21" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B23" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C23" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C5:C13"/>
+  <mergeCells count="15">
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
